--- a/data.xlsx
+++ b/data.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">                                              Giá:  35,000 vnđ - 45,000 vnđ                                        </t>
   </si>
   <si>
-    <t>224 Ph?m V?n ??ng , Q. G&amp;#242; V?p, TP.HCM, Vi?t Nam</t>
+    <t>224 Pham Van Dong , Q. G&amp;#242; Vap, TP.HCM, Viet Nam</t>
   </si>
   <si>
     <t>129.3k</t>
@@ -74,13 +74,13 @@
     <t>01</t>
   </si>
   <si>
-    <t>S&amp;#250;p Cua C&amp;#244; Lan - L??ng Nh? H?c</t>
+    <t>S&amp;#250;p Cua C&amp;#244; Lan - Luong Nhu Hoc</t>
   </si>
   <si>
     <t xml:space="preserve">                                              Giá:  10,000 vnđ - 30,000 vnđ                                        </t>
   </si>
   <si>
-    <t>239 L??ng Nh? H?c, Q.5, H? Ch&amp;#237; Minh, Vi?t Nam</t>
+    <t>239 Luong Nhu Hoc, Q.5, Ho Ch&amp;#237; Minh, Viet Nam</t>
   </si>
   <si>
     <t>120.5k</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">                                              Giá:  10,000 vnđ - 100,000 vnđ                                        </t>
   </si>
   <si>
-    <t>012 L&amp;#244; E cc ?n Quang V?nh Vi?n T? 69 Khu ph? 4, P.9, Q.10, TP.HCM, Vi?t Nam</t>
+    <t>012 L&amp;#244; E cc An Quang Vinh Vien To 69 Khu pho 4, P.9, Q.10, TP.HCM, Viet Nam</t>
   </si>
   <si>
     <t>116.7k</t>
   </si>
   <si>
-    <t>H?m ?n V?t 76 Hai B&amp;#224; Tr?ng</t>
+    <t>Hem An Vat 76 Hai B&amp;#224; Trung</t>
   </si>
   <si>
     <t xml:space="preserve">                                              Giá:  15,000 vnđ - 20,000 vnđ                                        </t>
   </si>
   <si>
-    <t>H?m 76 Hai B&amp;#224; Tr?ng, Qu?n 1</t>
+    <t>Hem 76 Hai B&amp;#224; Trung, Quan 1</t>
   </si>
   <si>
     <t>104.6k</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">A. Ho&amp;#224;i Spaghetti </t>
   </si>
   <si>
-    <t>393/27 Tr?n H?ng ??o, P. C?u Kho, Q.1, TP.HCM</t>
-  </si>
-  <si>
-    <t>99.7k</t>
+    <t>393/27 Tran Hung Dao, P. Cau Kho, Q.1, TP.HCM</t>
+  </si>
+  <si>
+    <t>99.8k</t>
   </si>
   <si>
     <t>X&amp;#244;i B&amp;#236;nh Ti&amp;#234;n</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">                                              Giá:  10,000 vnđ - 33,000 vnđ                                        </t>
   </si>
   <si>
-    <t>88 Minh Ph?ng, P. 5, Qu?n 6</t>
+    <t>88 Minh Phung, P. 5, Quan 6</t>
   </si>
   <si>
     <t>97.7k</t>
   </si>
   <si>
-    <t xml:space="preserve">Qu&amp;#225;n Cacao D?a D&amp;#236; Lan </t>
-  </si>
-  <si>
-    <t>H?m 100 H&amp;#249;ng V??ng, P.9, Q.5, TP. HCM</t>
+    <t xml:space="preserve">Qu&amp;#225;n Cacao Dua D&amp;#236; Lan </t>
+  </si>
+  <si>
+    <t>Hem 100 H&amp;#249;ng Vuong, P.9, Q.5, TP. HCM</t>
   </si>
   <si>
     <t>96.1k</t>
@@ -155,25 +155,25 @@
     <t>09</t>
   </si>
   <si>
-    <t xml:space="preserve">B&amp;#250;n n??c Quy&amp;#234;n </t>
+    <t xml:space="preserve">B&amp;#250;n nuoc Quy&amp;#234;n </t>
   </si>
   <si>
     <t xml:space="preserve">                                              Giá:  30,000 vnđ - 60,000 vnđ                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">A3/1 Khu d&amp;#226;n c? Mi?u N?i,  V?n Ki?p, Ph??ng 3, Qu?n B&amp;#236;nh Th?nh, TPHCM </t>
+    <t xml:space="preserve">A3/1 Khu d&amp;#226;n cu Mieu Noi,  Van Kiep, Phuong 3, Quan B&amp;#236;nh Thanh, TPHCM </t>
   </si>
   <si>
     <t>94.5k</t>
   </si>
   <si>
-    <t>Uncle Tea - Tr&amp;#224; ?&amp;#224;i Loan</t>
+    <t>Uncle Tea - Tr&amp;#224; D&amp;#224;i Loan</t>
   </si>
   <si>
     <t xml:space="preserve">                                              Giá:  29,000 vnđ - 60,000 vnđ                                        </t>
   </si>
   <si>
-    <t>535 Nguy?n Tr&amp;#227;i, P. 7, Qu?n 5, TP. HCM</t>
+    <t>535 Nguyen Tr&amp;#227;i, P. 7, Quan 5, TP. HCM</t>
   </si>
   <si>
     <t>85.9k</t>
